--- a/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/дв 22,03,24 бррсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/дв 22,03,24 бррсч ост сыр от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\22,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885AE1AF-B1C3-440E-84F7-5B7357A9BB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA24D5-DD3E-4DAD-A183-FAC40AA62A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1274,11 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1686,7 @@
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1780,7 +1779,7 @@
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +1870,7 @@
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3"/>
     </row>
-    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
     </row>
-    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2068,7 +2067,7 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -2274,7 +2273,7 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
     </row>
-    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -2678,7 +2677,7 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
     </row>
-    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -2979,7 +2978,7 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
     </row>
-    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="AY19" s="3"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3180,7 @@
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="AY21" s="3"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -3485,7 +3484,7 @@
       <c r="AY23" s="3"/>
       <c r="AZ23" s="3"/>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -29233,13 +29232,7 @@
       <c r="AZ498" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA25" xr:uid="{539AB5A2-2431-40F8-9A0F-AE358073F003}">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="1,00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AA25" xr:uid="{539AB5A2-2431-40F8-9A0F-AE358073F003}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
